--- a/MainTop/06.10.2025 Таня Озон/extra4.xlsx
+++ b/MainTop/06.10.2025 Таня Озон/extra4.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\06.10.2025 Таня Озон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\06.10.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF30D2B-EB21-4C1F-BD08-351E4CD43EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EB20C0-EBF9-47A5-9EA5-2772CADED744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="89">
   <si>
     <t>Артикул</t>
   </si>
@@ -179,6 +179,114 @@
   </si>
   <si>
     <t>06.10.2025 Таня Озон extra4</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Мак фиолетовый</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Щенячий Патруль Paw Patrol</t>
+  </si>
+  <si>
+    <t>05.09.2025 Таня Озон extra</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце Море Силует</t>
+  </si>
+  <si>
+    <t>Термонаклейка Бабочка зеленная листья</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кит в золотом дизайне космос</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белый волк с цветами и узорами</t>
+  </si>
+  <si>
+    <t>Термонаклейка Черный Кот в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сейлор Мун Sailor Moon голубой фон</t>
+  </si>
+  <si>
+    <t>Термонаклейка Медуза Горгона черно-белый</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мэрилин Монро Медуза Горгона</t>
+  </si>
+  <si>
+    <t>Термонаклейка Подсолнух Ван Гог</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Розовые Лилии</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце Love is Wild</t>
+  </si>
+  <si>
+    <t>Термонаклейка Котенок розовый закат звезды</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка лицо крылья</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце леопардовое</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Месяц Лотос</t>
+  </si>
+  <si>
+    <t>Термонаклейка Инь Янь Кошки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Матрешка цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце Бабочки летят</t>
+  </si>
+  <si>
+    <t>Термонаклейка Цветы Магнолия фиолетовая Garden</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка с фламинго</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Волосы Бабочки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Венок Луна Акварель</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Природа Силует</t>
+  </si>
+  <si>
+    <t>Термонаклейка Морская Ракушка Силует</t>
+  </si>
+  <si>
+    <t>Термонаклейка Белый Кот в цветах</t>
+  </si>
+  <si>
+    <t>Термонаклейка набор Винни Пух</t>
+  </si>
+  <si>
+    <t>Термонаклейка Чёрный волк красный луна</t>
+  </si>
+  <si>
+    <t>Термонаклейка Тигр в витражном стиле</t>
+  </si>
+  <si>
+    <t>Термонаклейка Тигр с букетом жёлтых тюльпанов</t>
+  </si>
+  <si>
+    <t>Термонаклейка Кит в голубых и розовых оттенках</t>
+  </si>
+  <si>
+    <t>Термонаклейка Лошадь в золотых и мраморных тонах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Итальянская набережная</t>
+  </si>
+  <si>
+    <t>москва</t>
   </si>
 </sst>
 </file>
@@ -240,12 +348,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +669,7 @@
     <col min="2" max="2" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -587,13 +696,16 @@
       <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -602,7 +714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -616,7 +728,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -630,12 +742,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -644,7 +756,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -658,12 +770,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -672,12 +784,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -686,7 +798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -700,7 +812,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -714,7 +826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -728,7 +840,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -742,7 +854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -756,7 +868,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -770,7 +882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -887,7 +999,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
@@ -915,7 +1027,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
@@ -943,7 +1055,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -957,7 +1069,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
@@ -999,7 +1111,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
@@ -1027,7 +1139,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -1041,7 +1153,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>4</v>
@@ -1181,7 +1293,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>4</v>
@@ -1195,7 +1307,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
@@ -1231,6 +1343,502 @@
       <c r="D48" s="2" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
